--- a/data_year/zb/教育/各级各类非学历教育学生情况/各级各类非学历教育结业生数.xlsx
+++ b/data_year/zb/教育/各级各类非学历教育学生情况/各级各类非学历教育结业生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,586 +523,394 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>172.8991</v>
+      </c>
+      <c r="C2" t="n">
+        <v>734.0783</v>
+      </c>
+      <c r="D2" t="n">
+        <v>208.854</v>
+      </c>
+      <c r="E2" t="n">
+        <v>679.2619</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5986.3704</v>
+      </c>
+      <c r="G2" t="n">
+        <v>579.2588</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6698.9254</v>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>4.829</v>
+      </c>
+      <c r="K2" t="n">
+        <v>506.3628</v>
+      </c>
       <c r="L2" t="n">
-        <v>6176.9903</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>5252.2921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>370.4048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19.4889</v>
+      </c>
+      <c r="O2" t="n">
+        <v>106.9856</v>
+      </c>
+      <c r="P2" t="n">
+        <v>712.5549999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>131.551</v>
+      </c>
+      <c r="R2" t="n">
+        <v>688.2371000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>201.8994</v>
+      </c>
+      <c r="C3" t="n">
+        <v>695.9144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>264.6761</v>
+      </c>
+      <c r="E3" t="n">
+        <v>979.8624</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5842.502</v>
+      </c>
+      <c r="G3" t="n">
+        <v>761.4303</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6519.6816</v>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4.8873</v>
+      </c>
+      <c r="K3" t="n">
+        <v>777.963</v>
+      </c>
       <c r="L3" t="n">
-        <v>5934.188</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>5146.5876</v>
+      </c>
+      <c r="M3" t="n">
+        <v>496.7542</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.2067</v>
+      </c>
+      <c r="O3" t="n">
+        <v>178.5514</v>
+      </c>
+      <c r="P3" t="n">
+        <v>677.1796000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>201.7012</v>
+      </c>
+      <c r="R3" t="n">
+        <v>648.0856</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>208.8129</v>
+      </c>
+      <c r="C4" t="n">
+        <v>713.6842</v>
+      </c>
+      <c r="D4" t="n">
+        <v>268.349</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1227.2059</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5537.0447</v>
+      </c>
+      <c r="G4" t="n">
+        <v>863.0967000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6315.5796</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.0284</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1018.393</v>
+      </c>
       <c r="L4" t="n">
-        <v>5733.6156</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+        <v>4823.3605</v>
+      </c>
+      <c r="M4" t="n">
+        <v>594.7477</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18.4933</v>
+      </c>
+      <c r="O4" t="n">
+        <v>215.9604</v>
+      </c>
+      <c r="P4" t="n">
+        <v>778.5349</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>225.0573</v>
+      </c>
+      <c r="R4" t="n">
+        <v>755.0132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>204.8427</v>
+      </c>
+      <c r="C5" t="n">
+        <v>624.7386</v>
+      </c>
+      <c r="D5" t="n">
+        <v>246.7512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1278.1963</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5340.3354</v>
+      </c>
+      <c r="G5" t="n">
+        <v>869.3004</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6274.1102</v>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4.8329</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1073.3536</v>
+      </c>
       <c r="L5" t="n">
-        <v>6003.1763</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>4715.5968</v>
+      </c>
+      <c r="M5" t="n">
+        <v>622.5492</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19.4882</v>
+      </c>
+      <c r="O5" t="n">
+        <v>250.4684</v>
+      </c>
+      <c r="P5" t="n">
+        <v>933.7748</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>235.1305</v>
+      </c>
+      <c r="R5" t="n">
+        <v>909.4537</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>185.8154</v>
+      </c>
+      <c r="C6" t="n">
+        <v>604.9503999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>249.0008</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1182.1244</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5084.4797</v>
+      </c>
+      <c r="G6" t="n">
+        <v>828.3003</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6004.7595</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>4.5457</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>3.4836</v>
+      </c>
+      <c r="K6" t="n">
+        <v>996.309</v>
+      </c>
       <c r="L6" t="n">
-        <v>5720.9955</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>4479.5293</v>
+      </c>
+      <c r="M6" t="n">
+        <v>579.2995</v>
+      </c>
       <c r="N6" t="n">
-        <v>21.4769</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+        <v>14.9228</v>
+      </c>
+      <c r="O6" t="n">
+        <v>251.7423</v>
+      </c>
+      <c r="P6" t="n">
+        <v>920.2798</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>223.3496</v>
+      </c>
       <c r="R6" t="n">
-        <v>411.9157</v>
+        <v>901.8733999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.3276</v>
+        <v>169.6505</v>
       </c>
       <c r="C7" t="n">
-        <v>682.2378</v>
+        <v>529.5780999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>198.2254</v>
+        <v>204.7174</v>
       </c>
       <c r="E7" t="n">
-        <v>700.2076</v>
+        <v>1224.0823</v>
       </c>
       <c r="F7" t="n">
-        <v>6112.7503</v>
+        <v>4909.0747</v>
       </c>
       <c r="G7" t="n">
-        <v>601.471</v>
+        <v>775.9027</v>
       </c>
       <c r="H7" t="n">
-        <v>6644.4523</v>
+        <v>5816.613</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>4.6803</v>
+        <v>3.126</v>
       </c>
       <c r="K7" t="n">
-        <v>530.88</v>
+        <v>1054.4318</v>
       </c>
       <c r="L7" t="n">
-        <v>5430.5125</v>
+        <v>4379.4966</v>
       </c>
       <c r="M7" t="n">
-        <v>403.2456</v>
+        <v>571.1853</v>
       </c>
       <c r="N7" t="n">
-        <v>19.6768</v>
+        <v>13.0855</v>
       </c>
       <c r="O7" t="n">
-        <v>118.488</v>
+        <v>276.8653</v>
       </c>
       <c r="P7" t="n">
-        <v>531.702</v>
+        <v>907.5383</v>
       </c>
       <c r="Q7" t="n">
-        <v>109.4037</v>
+        <v>242.6509</v>
       </c>
       <c r="R7" t="n">
-        <v>507.3449</v>
+        <v>891.3268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.8991</v>
+        <v>154.7596</v>
       </c>
       <c r="C8" t="n">
-        <v>734.0783</v>
+        <v>463.9952</v>
       </c>
       <c r="D8" t="n">
-        <v>208.854</v>
+        <v>173.0703</v>
       </c>
       <c r="E8" t="n">
-        <v>679.2619</v>
+        <v>1126.6732</v>
       </c>
       <c r="F8" t="n">
-        <v>5986.3704</v>
+        <v>4744.072</v>
       </c>
       <c r="G8" t="n">
-        <v>579.2588</v>
+        <v>763.784</v>
       </c>
       <c r="H8" t="n">
-        <v>6698.9254</v>
+        <v>5724.9115</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>4.829</v>
+        <v>0.9244</v>
       </c>
       <c r="K8" t="n">
-        <v>506.3628</v>
+        <v>971.9136</v>
       </c>
       <c r="L8" t="n">
-        <v>5252.2921</v>
+        <v>4280.0768</v>
       </c>
       <c r="M8" t="n">
-        <v>370.4048</v>
+        <v>590.7137</v>
       </c>
       <c r="N8" t="n">
-        <v>19.4889</v>
+        <v>11.6214</v>
       </c>
       <c r="O8" t="n">
-        <v>106.9856</v>
+        <v>248.5345</v>
       </c>
       <c r="P8" t="n">
-        <v>712.5549999999999</v>
+        <v>980.8395</v>
       </c>
       <c r="Q8" t="n">
-        <v>131.551</v>
+        <v>223.4987</v>
       </c>
       <c r="R8" t="n">
-        <v>688.2371000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>201.8994</v>
-      </c>
-      <c r="C9" t="n">
-        <v>695.9144</v>
-      </c>
-      <c r="D9" t="n">
-        <v>264.6761</v>
-      </c>
-      <c r="E9" t="n">
-        <v>979.8624</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5842.502</v>
-      </c>
-      <c r="G9" t="n">
-        <v>761.4303</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6519.6816</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>4.8873</v>
-      </c>
-      <c r="K9" t="n">
-        <v>777.963</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5146.5876</v>
-      </c>
-      <c r="M9" t="n">
-        <v>496.7542</v>
-      </c>
-      <c r="N9" t="n">
-        <v>24.2067</v>
-      </c>
-      <c r="O9" t="n">
-        <v>178.5514</v>
-      </c>
-      <c r="P9" t="n">
-        <v>677.1796000000001</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>201.7012</v>
-      </c>
-      <c r="R9" t="n">
-        <v>648.0856</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>208.8129</v>
-      </c>
-      <c r="C10" t="n">
-        <v>713.6842</v>
-      </c>
-      <c r="D10" t="n">
-        <v>268.349</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1227.2059</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5537.0447</v>
-      </c>
-      <c r="G10" t="n">
-        <v>863.0967000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6315.5796</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.0284</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1018.393</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4823.3605</v>
-      </c>
-      <c r="M10" t="n">
-        <v>594.7477</v>
-      </c>
-      <c r="N10" t="n">
-        <v>18.4933</v>
-      </c>
-      <c r="O10" t="n">
-        <v>215.9604</v>
-      </c>
-      <c r="P10" t="n">
-        <v>778.5349</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>225.0573</v>
-      </c>
-      <c r="R10" t="n">
-        <v>755.0132</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>204.8427</v>
-      </c>
-      <c r="C11" t="n">
-        <v>624.7386</v>
-      </c>
-      <c r="D11" t="n">
-        <v>246.7512</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1278.1963</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5340.3354</v>
-      </c>
-      <c r="G11" t="n">
-        <v>869.3004</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6274.1102</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>4.8329</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1073.3536</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4715.5968</v>
-      </c>
-      <c r="M11" t="n">
-        <v>622.5492</v>
-      </c>
-      <c r="N11" t="n">
-        <v>19.4882</v>
-      </c>
-      <c r="O11" t="n">
-        <v>250.4684</v>
-      </c>
-      <c r="P11" t="n">
-        <v>933.7748</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>235.1305</v>
-      </c>
-      <c r="R11" t="n">
-        <v>909.4537</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>185.8154</v>
-      </c>
-      <c r="C12" t="n">
-        <v>604.9503999999999</v>
-      </c>
-      <c r="D12" t="n">
-        <v>249.0008</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1182.1244</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5084.4797</v>
-      </c>
-      <c r="G12" t="n">
-        <v>828.3003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6004.7595</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>3.4836</v>
-      </c>
-      <c r="K12" t="n">
-        <v>996.309</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4479.5293</v>
-      </c>
-      <c r="M12" t="n">
-        <v>579.2995</v>
-      </c>
-      <c r="N12" t="n">
-        <v>14.9228</v>
-      </c>
-      <c r="O12" t="n">
-        <v>251.7423</v>
-      </c>
-      <c r="P12" t="n">
-        <v>920.2798</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>223.3496</v>
-      </c>
-      <c r="R12" t="n">
-        <v>901.8733999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>169.6505</v>
-      </c>
-      <c r="C13" t="n">
-        <v>529.5780999999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>204.7174</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1224.0823</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4909.0747</v>
-      </c>
-      <c r="G13" t="n">
-        <v>775.9027</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5816.613</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>3.126</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1054.4318</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4379.4966</v>
-      </c>
-      <c r="M13" t="n">
-        <v>571.1853</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13.0855</v>
-      </c>
-      <c r="O13" t="n">
-        <v>276.8653</v>
-      </c>
-      <c r="P13" t="n">
-        <v>907.5383</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>242.6509</v>
-      </c>
-      <c r="R13" t="n">
-        <v>891.3268</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>154.7596</v>
-      </c>
-      <c r="C14" t="n">
-        <v>463.9952</v>
-      </c>
-      <c r="D14" t="n">
-        <v>173.0703</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1126.6732</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4744.072</v>
-      </c>
-      <c r="G14" t="n">
-        <v>763.784</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5724.9115</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0.9244</v>
-      </c>
-      <c r="K14" t="n">
-        <v>971.9136</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4280.0768</v>
-      </c>
-      <c r="M14" t="n">
-        <v>590.7137</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11.6214</v>
-      </c>
-      <c r="O14" t="n">
-        <v>248.5345</v>
-      </c>
-      <c r="P14" t="n">
-        <v>980.8395</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>223.4987</v>
-      </c>
-      <c r="R14" t="n">
         <v>968.2936999999999</v>
       </c>
     </row>
